--- a/VerveStacks_ESP/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ESP/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ESP\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{391C17DF-68DC-4551-8912-32EAFF9433EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40E99562-DBDB-4F39-A5C0-DD766CC7560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1316,16 +1316,16 @@
     <t>wind resource -- CF class won-ESP_17 -- cost class 3</t>
   </si>
   <si>
+    <t>e_won-ESP_16_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ESP_16 -- cost class 4</t>
+  </si>
+  <si>
     <t>e_won-ESP_16_c3</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ESP_16 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_won-ESP_16_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ESP_16 -- cost class 4</t>
   </si>
   <si>
     <t>e_won-ESP_16_c5</t>
@@ -1797,7 +1797,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C45F02-5B73-B12E-1BFC-320A50C7E7D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C651D9-9420-46DB-4D82-3F81B45F67E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1852,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12358EA-4548-D652-169A-1A76F6649992}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C382598B-FED8-B59E-DC90-8864BA356CEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,7 +1907,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE558F6E-4150-5E4C-EC21-D9F079A9E408}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A3F852-5A9A-7B64-94D1-0CA7DD1EC8C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +1962,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F5DD8E-9349-368F-307E-8C3DF6B2DD35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E01473-15F7-813A-B6B5-0C10AA1E2427}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4489,7 +4489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478A2265-41C6-45B1-8D00-CD3B746E2B78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB08D3D0-CA4C-48AA-964F-A603BE18C3B0}">
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6058,7 +6058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFEEA64-1D67-4907-91B7-8A378D293E5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09BD175-1DED-4C68-8504-E21949814519}">
   <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10106,16 +10106,16 @@
         <v>413</v>
       </c>
       <c r="M100" s="35">
-        <v>0.41475000000000001</v>
+        <v>0.17324999999999999</v>
       </c>
       <c r="N100" s="35">
         <v>0.16400000000000001</v>
       </c>
       <c r="O100" s="32">
-        <v>59.788629609439624</v>
+        <v>64.053602386209121</v>
       </c>
       <c r="P100" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="2:16">
@@ -10147,16 +10147,16 @@
         <v>413</v>
       </c>
       <c r="M101" s="37">
-        <v>0.17324999999999999</v>
+        <v>0.41475000000000001</v>
       </c>
       <c r="N101" s="37">
         <v>0.16400000000000001</v>
       </c>
       <c r="O101" s="33">
-        <v>64.053602386209121</v>
+        <v>59.788629609439624</v>
       </c>
       <c r="P101" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="2:16">
@@ -10292,7 +10292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565FDE6D-A99B-40EF-9F54-924455CA81F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810C323D-2908-40D0-948D-291373C1392C}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
